--- a/data/nzd0567/nzd0567.xlsx
+++ b/data/nzd0567/nzd0567.xlsx
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>277.0700000000001</v>
+        <v>277.07</v>
       </c>
       <c r="C37" t="n">
         <v>232.22</v>
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>283.0700000000001</v>
+        <v>283.07</v>
       </c>
       <c r="C51" t="n">
         <v>226.6</v>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>276.1799999999999</v>
+        <v>276.18</v>
       </c>
       <c r="C68" t="n">
         <v>222.42</v>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>281.1799999999999</v>
+        <v>281.18</v>
       </c>
       <c r="C122" t="n">
         <v>228.72</v>
@@ -2950,7 +2950,7 @@
         <v>279.85</v>
       </c>
       <c r="C141" t="n">
-        <v>226.4100000000001</v>
+        <v>226.41</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>277.67</v>
       </c>
       <c r="C161" t="n">
-        <v>228.6600000000001</v>
+        <v>228.66</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3352,7 +3352,7 @@
         <v>285.32</v>
       </c>
       <c r="C164" t="n">
-        <v>229.1600000000001</v>
+        <v>229.16</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>265.6799999999999</v>
+        <v>265.68</v>
       </c>
       <c r="C235" t="n">
         <v>224.52</v>
@@ -4710,7 +4710,7 @@
         <v>276.8</v>
       </c>
       <c r="C240" t="n">
-        <v>236.1600000000001</v>
+        <v>236.16</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>280.5700000000001</v>
+        <v>280.57</v>
       </c>
       <c r="C333" t="n">
         <v>229.93</v>
@@ -6403,7 +6403,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>287.4299999999999</v>
+        <v>287.43</v>
       </c>
       <c r="C335" t="n">
         <v>228.76</v>
@@ -6818,7 +6818,7 @@
         <v>276.81</v>
       </c>
       <c r="C358" t="n">
-        <v>225.1600000000001</v>
+        <v>225.16</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>272.84</v>
       </c>
       <c r="C372" t="n">
-        <v>229.6600000000001</v>
+        <v>229.66</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>260.96</v>
       </c>
       <c r="C419" t="n">
-        <v>216.9100000000001</v>
+        <v>216.91</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B481" t="inlineStr"/>
       <c r="C481" t="n">
-        <v>213.9100000000001</v>
+        <v>213.91</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         </is>
       </c>
       <c r="B485" t="n">
-        <v>280.0700000000001</v>
+        <v>280.07</v>
       </c>
       <c r="C485" t="n">
         <v>229.31</v>
@@ -9187,7 +9187,7 @@
         </is>
       </c>
       <c r="B491" t="n">
-        <v>274.5700000000001</v>
+        <v>274.57</v>
       </c>
       <c r="C491" t="n">
         <v>224.47</v>
@@ -9723,7 +9723,7 @@
         </is>
       </c>
       <c r="B521" t="n">
-        <v>277.4299999999999</v>
+        <v>277.43</v>
       </c>
       <c r="C521" t="n">
         <v>227.7</v>
@@ -10134,7 +10134,7 @@
         <v>279.5</v>
       </c>
       <c r="C544" t="n">
-        <v>225.9100000000001</v>
+        <v>225.91</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         </is>
       </c>
       <c r="B577" t="n">
-        <v>281.6799999999999</v>
+        <v>281.68</v>
       </c>
       <c r="C577" t="n">
         <v>229.61</v>
@@ -10909,7 +10909,7 @@
         </is>
       </c>
       <c r="B588" t="n">
-        <v>286.0700000000001</v>
+        <v>286.07</v>
       </c>
       <c r="C588" t="n">
         <v>231.84</v>
@@ -11376,7 +11376,7 @@
         <v>281.19</v>
       </c>
       <c r="C614" t="n">
-        <v>230.6600000000001</v>
+        <v>230.66</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         </is>
       </c>
       <c r="B636" t="n">
-        <v>277.9299999999999</v>
+        <v>277.93</v>
       </c>
       <c r="C636" t="inlineStr"/>
       <c r="D636" t="inlineStr">
@@ -12461,7 +12461,7 @@
         </is>
       </c>
       <c r="B675" t="n">
-        <v>282.5700000000001</v>
+        <v>282.57</v>
       </c>
       <c r="C675" t="inlineStr"/>
       <c r="D675" t="inlineStr">
@@ -12945,7 +12945,7 @@
         </is>
       </c>
       <c r="B702" t="n">
-        <v>280.6799999999999</v>
+        <v>280.68</v>
       </c>
       <c r="C702" t="n">
         <v>227.44</v>
@@ -22664,7 +22664,7 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2121934996952392</v>
+        <v>0.2121934996952393</v>
       </c>
       <c r="J2" t="n">
         <v>705</v>
@@ -22673,16 +22673,16 @@
         <v>687</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02223933393856714</v>
+        <v>0.02223933393856703</v>
       </c>
       <c r="M2" t="n">
         <v>8.084734303291347</v>
       </c>
       <c r="N2" t="n">
-        <v>113.0706958781845</v>
+        <v>113.0706958781844</v>
       </c>
       <c r="O2" t="n">
-        <v>10.63347054720069</v>
+        <v>10.63347054720068</v>
       </c>
       <c r="P2" t="n">
         <v>271.4414654464161</v>
@@ -22745,7 +22745,7 @@
         <v>663</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02905290795231252</v>
+        <v>0.02905290795231263</v>
       </c>
       <c r="M3" t="n">
         <v>4.503702181496766</v>
@@ -30941,7 +30941,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>-41.03324532405413,173.02266811604622</t>
+          <t>-41.033245324054135,173.02266811604622</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">

--- a/data/nzd0567/nzd0567.xlsx
+++ b/data/nzd0567/nzd0567.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D706"/>
+  <dimension ref="A1:D711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13023,6 +13023,96 @@
         <v>223.7</v>
       </c>
       <c r="D706" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-05 22:07:28+00:00</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>279.73</v>
+      </c>
+      <c r="C707" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-21 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>262.54</v>
+      </c>
+      <c r="C708" t="n">
+        <v>226.03</v>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:13:46+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>265.89</v>
+      </c>
+      <c r="C709" t="n">
+        <v>223.4</v>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>270.07</v>
+      </c>
+      <c r="C710" t="n">
+        <v>225.44</v>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-21 22:13:19+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>253.95</v>
+      </c>
+      <c r="C711" t="n">
+        <v>221.99</v>
+      </c>
+      <c r="D711" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13039,7 +13129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B945"/>
+  <dimension ref="A1:B951"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22497,6 +22587,66 @@
       </c>
       <c r="B945" t="n">
         <v>0.55</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>2025-10-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B946" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>2025-10-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B947" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>2025-10-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B948" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B949" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B950" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>2025-11-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B951" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>
@@ -22664,28 +22814,28 @@
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2121934996952393</v>
+        <v>0.1967146943344225</v>
       </c>
       <c r="J2" t="n">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="K2" t="n">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02223933393856703</v>
+        <v>0.01927863072775804</v>
       </c>
       <c r="M2" t="n">
-        <v>8.084734303291347</v>
+        <v>8.128300554675237</v>
       </c>
       <c r="N2" t="n">
-        <v>113.0706958781844</v>
+        <v>113.5678032031208</v>
       </c>
       <c r="O2" t="n">
-        <v>10.63347054720068</v>
+        <v>10.65681956322433</v>
       </c>
       <c r="P2" t="n">
-        <v>271.4414654464161</v>
+        <v>271.5923328948955</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22730,34 +22880,34 @@
         <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1691</v>
+        <v>0.17</v>
       </c>
       <c r="H3" t="n">
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1460907258120313</v>
+        <v>0.1427291803027634</v>
       </c>
       <c r="J3" t="n">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="K3" t="n">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02905290795231263</v>
+        <v>0.02821361502261854</v>
       </c>
       <c r="M3" t="n">
-        <v>4.503702181496766</v>
+        <v>4.492249275114193</v>
       </c>
       <c r="N3" t="n">
-        <v>40.23836646429042</v>
+        <v>40.01282823430357</v>
       </c>
       <c r="O3" t="n">
-        <v>6.343371852909966</v>
+        <v>6.325569400006893</v>
       </c>
       <c r="P3" t="n">
-        <v>223.4657897624293</v>
+        <v>223.4986477020864</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22795,7 +22945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D706"/>
+  <dimension ref="A1:D711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38095,6 +38245,116 @@
         </is>
       </c>
     </row>
+    <row r="707">
+      <c r="A707" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-05 22:07:28+00:00</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>-41.033207784519064,173.02273249151224</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>-41.03292189235127,173.02172060353678</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-21 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>-41.03330226535889,173.02257046878682</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>-41.032935116242456,173.02169265880477</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:13:46+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>-41.033283852880466,173.02260204393255</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>-41.032947671771836,173.02166612643154</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>-41.03326087849217,173.0226414421494</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>-41.03293793288267,173.0216867066763</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-21 22:13:19+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>-41.0333494782116,173.02248950437755</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>-41.03295440306074,173.0216519018471</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
